--- a/planning/assets/formatsXlsx/Productos_En_Proceso.xlsx
+++ b/planning/assets/formatsXlsx/Productos_En_Proceso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Ledesma\Documents\Documentos\teenus\importaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A02B3AA-C820-4802-8957-12EF95F99296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671EDB1B-4D0D-450F-89DE-FC5AC97AA3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B975D59-1068-49EC-8CAA-133E90D62DD2}"/>
   </bookViews>
@@ -36,19 +36,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>referencia</t>
   </si>
   <si>
     <t>producto</t>
   </si>
+  <si>
+    <t>referencia_producto_final</t>
+  </si>
+  <si>
+    <t>producto_final</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +75,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -78,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -156,11 +168,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,14 +205,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
       <font>
-        <b/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -204,11 +234,46 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -291,13 +356,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -328,6 +386,45 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -342,10 +439,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B93BCF1-C3A5-4707-AD64-3CB67F2157BE}" name="Tabla1" displayName="Tabla1" ref="A1:B6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{ED739734-E9A8-468F-A92E-F4057FC62A90}" name="referencia" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B5BB17B0-A407-496C-AD46-8B5E85B75C67}" name="producto" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5B93BCF1-C3A5-4707-AD64-3CB67F2157BE}" name="Tabla1" displayName="Tabla1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{ED739734-E9A8-468F-A92E-F4057FC62A90}" name="referencia_producto_final" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B5BB17B0-A407-496C-AD46-8B5E85B75C67}" name="producto_final" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{AA198433-5E7C-474A-A17F-0C46F92EDC15}" name="referencia" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{CDCBE0E2-C9DD-44B1-BF87-6E7CE67B18EB}" name="producto" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -648,47 +747,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709CB6B0-2DFA-49B3-801C-6E5ACBE480C6}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" customWidth="1"/>
+    <col min="1" max="1" width="58" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
